--- a/DestroyViruses/Assets/Tables/TableFirePower.xlsx
+++ b/DestroyViruses/Assets/Tables/TableFirePower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="9660"/>
+    <workbookView windowWidth="29655" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -27,13 +27,10 @@
     <t>upcost</t>
   </si>
   <si>
-    <t>string</t>
+    <t>int</t>
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>ID(等级)</t>
@@ -51,8 +48,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -65,74 +62,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,6 +97,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -153,9 +120,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,17 +189,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,21 +204,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -217,19 +214,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,163 +364,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,17 +408,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,22 +432,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,8 +450,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,9 +488,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,10 +511,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,133 +523,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1006,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1033,18 +1030,18 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">

--- a/DestroyViruses/Assets/Tables/TableFirePower.xlsx
+++ b/DestroyViruses/Assets/Tables/TableFirePower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27510" windowHeight="13905"/>
+    <workbookView windowWidth="16764" windowHeight="8807"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,8 +49,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -67,14 +67,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -91,37 +83,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,39 +180,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,8 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,22 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,31 +220,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,37 +370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,109 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +438,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -462,21 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -488,15 +497,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,145 +517,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,12 +1013,14 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1062,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1070,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>80</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1081,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>140</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1092,10 +1094,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1103,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>260</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1114,10 +1116,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>320</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1125,10 +1127,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>380</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1136,10 +1138,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
-        <v>440</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1147,10 +1149,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>500</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1158,10 +1160,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>560</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1169,10 +1171,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>620</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1180,10 +1182,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>680</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1191,10 +1193,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
-        <v>740</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1202,10 +1204,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>800</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1213,10 +1215,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>860</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1224,10 +1226,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
-        <v>920</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1235,10 +1237,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
-        <v>980</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1246,10 +1248,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
-        <v>1040</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1257,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>1100</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1268,10 +1270,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1">
-        <v>1160</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1279,10 +1281,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
-        <v>1220</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1290,10 +1292,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>232</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1">
-        <v>1280</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1301,10 +1303,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
-        <v>1340</v>
+        <v>7935</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1312,10 +1314,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
-        <v>1400</v>
+        <v>8400</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1323,10 +1325,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
-        <v>1460</v>
+        <v>8875</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1334,10 +1336,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>276</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>1520</v>
+        <v>9360</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1345,10 +1347,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
-        <v>1580</v>
+        <v>9855</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1356,10 +1358,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>298</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
-        <v>1640</v>
+        <v>10360</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1367,10 +1369,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>309</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
-        <v>1700</v>
+        <v>10875</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1378,10 +1380,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
-        <v>1760</v>
+        <v>11400</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1389,10 +1391,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
-        <v>1820</v>
+        <v>11935</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1400,10 +1402,10 @@
         <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>1880</v>
+        <v>12480</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1411,10 +1413,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="1">
-        <v>353</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
-        <v>1940</v>
+        <v>13035</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1422,10 +1424,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="1">
-        <v>364</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
-        <v>2000</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1433,10 +1435,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>375</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
-        <v>2060</v>
+        <v>14175</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1444,10 +1446,10 @@
         <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="C39" s="1">
-        <v>2120</v>
+        <v>14760</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1455,10 +1457,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>397</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1">
-        <v>2180</v>
+        <v>15355</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1466,10 +1468,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="1">
-        <v>408</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1">
-        <v>2240</v>
+        <v>15960</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1477,10 +1479,10 @@
         <v>39</v>
       </c>
       <c r="B42" s="1">
-        <v>419</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1">
-        <v>2300</v>
+        <v>16575</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1488,10 +1490,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="1">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
-        <v>2360</v>
+        <v>17200</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1499,10 +1501,10 @@
         <v>41</v>
       </c>
       <c r="B44" s="1">
-        <v>441</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1">
-        <v>2420</v>
+        <v>17835</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1510,10 +1512,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="1">
-        <v>452</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1">
-        <v>2480</v>
+        <v>18480</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1521,10 +1523,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="1">
-        <v>463</v>
+        <v>43</v>
       </c>
       <c r="C46" s="1">
-        <v>2540</v>
+        <v>19135</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +1545,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1559,7 +1561,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableFirePower.xlsx
+++ b/DestroyViruses/Assets/Tables/TableFirePower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16764" windowHeight="8807"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,11 +46,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,17 +69,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,21 +83,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,16 +158,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,64 +204,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,7 +221,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,13 +359,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,157 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,15 +412,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,46 +434,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,11 +467,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,10 +518,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -529,139 +530,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,17 +1012,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="14.125" style="2"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1030,7 +1033,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1041,7 +1044,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1052,481 +1055,2358 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>235</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>480</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>735</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1275</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1560</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1855</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>2160</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>2475</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>2800</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3480</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4200</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5300</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7500</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>8600</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9700</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10800</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2">
+        <v>11900</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2">
+        <v>12300</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1">
-        <v>7035</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2">
+        <v>13100</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1">
-        <v>7480</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2">
+        <v>13900</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>23</v>
-      </c>
-      <c r="C26" s="1">
-        <v>7935</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2">
+        <v>14700</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>24</v>
-      </c>
-      <c r="C27" s="1">
-        <v>8400</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15500</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1">
-        <v>8875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2">
+        <v>16300</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1">
-        <v>9360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2">
+        <v>17100</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1">
-        <v>9855</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18100</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1">
-        <v>10360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2">
+        <v>19100</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>29</v>
-      </c>
-      <c r="C32" s="1">
-        <v>10875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20100</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1">
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2">
+        <v>31100</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1">
-        <v>11935</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2">
+        <v>32600</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>32</v>
-      </c>
-      <c r="C35" s="1">
-        <v>12480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="C35" s="2">
+        <v>33600</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="1">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1">
-        <v>13035</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2">
+        <v>35600</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="1">
-        <v>34</v>
-      </c>
-      <c r="C37" s="1">
-        <v>13600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36600</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>35</v>
-      </c>
-      <c r="C38" s="1">
-        <v>14175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="C38" s="2">
+        <v>38300</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>36</v>
-      </c>
-      <c r="C39" s="1">
-        <v>14760</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="C39" s="2">
+        <v>39400</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1">
-        <v>15355</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="C40" s="2">
+        <v>41673</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="1">
-        <v>38</v>
-      </c>
-      <c r="C41" s="1">
-        <v>15960</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>69</v>
+      </c>
+      <c r="C41" s="2">
+        <v>42946</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="1">
-        <v>39</v>
-      </c>
-      <c r="C42" s="1">
-        <v>16575</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>72</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44885</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="1">
-        <v>40</v>
-      </c>
-      <c r="C43" s="1">
-        <v>17200</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2">
+        <v>61400</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="1">
-        <v>41</v>
-      </c>
-      <c r="C44" s="1">
-        <v>17835</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="C44" s="2">
+        <v>63000</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="1">
-        <v>42</v>
-      </c>
-      <c r="C45" s="1">
-        <v>18480</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="C45" s="2">
+        <v>64600</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="1">
-        <v>43</v>
-      </c>
-      <c r="C46" s="1">
-        <v>19135</v>
+        <v>91</v>
+      </c>
+      <c r="C46" s="2">
+        <v>66200</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>44</v>
+      </c>
+      <c r="B47" s="1">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2">
+        <v>67800</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>45</v>
+      </c>
+      <c r="B48" s="1">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2">
+        <v>72600</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>46</v>
+      </c>
+      <c r="B49" s="1">
+        <v>104</v>
+      </c>
+      <c r="C49" s="2">
+        <v>77400</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2">
+        <v>82200</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1">
+        <v>117</v>
+      </c>
+      <c r="C51" s="2">
+        <v>94800</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>49</v>
+      </c>
+      <c r="B52" s="1">
+        <v>123</v>
+      </c>
+      <c r="C52" s="2">
+        <v>102200</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>50</v>
+      </c>
+      <c r="B53" s="1">
+        <v>127</v>
+      </c>
+      <c r="C53" s="2">
+        <v>115200</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1">
+        <v>136</v>
+      </c>
+      <c r="C54" s="2">
+        <v>121480</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>52</v>
+      </c>
+      <c r="B55" s="1">
+        <v>145</v>
+      </c>
+      <c r="C55" s="2">
+        <v>130000</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>53</v>
+      </c>
+      <c r="B56" s="1">
+        <v>154</v>
+      </c>
+      <c r="C56" s="2">
+        <v>138520</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1">
+        <v>163</v>
+      </c>
+      <c r="C57" s="2">
+        <v>147040</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>55</v>
+      </c>
+      <c r="B58" s="1">
+        <v>172</v>
+      </c>
+      <c r="C58" s="2">
+        <v>155560</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1">
+        <v>181</v>
+      </c>
+      <c r="C59" s="2">
+        <v>164080</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>57</v>
+      </c>
+      <c r="B60" s="1">
+        <v>190</v>
+      </c>
+      <c r="C60" s="2">
+        <v>172600</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1">
+        <v>199</v>
+      </c>
+      <c r="C61" s="2">
+        <v>186120</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1">
+        <v>208</v>
+      </c>
+      <c r="C62" s="2">
+        <v>209640</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>60</v>
+      </c>
+      <c r="B63" s="1">
+        <v>212</v>
+      </c>
+      <c r="C63" s="2">
+        <v>222960</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1">
+        <v>225</v>
+      </c>
+      <c r="C64" s="2">
+        <v>250680</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1">
+        <v>238</v>
+      </c>
+      <c r="C65" s="2">
+        <v>278400</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1">
+        <v>251</v>
+      </c>
+      <c r="C66" s="2">
+        <v>306120</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1">
+        <v>264</v>
+      </c>
+      <c r="C67" s="2">
+        <v>333840</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1">
+        <v>277</v>
+      </c>
+      <c r="C68" s="2">
+        <v>361560</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1">
+        <v>290</v>
+      </c>
+      <c r="C69" s="2">
+        <v>389280</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1">
+        <v>303</v>
+      </c>
+      <c r="C70" s="2">
+        <v>417000</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1">
+        <v>316</v>
+      </c>
+      <c r="C71" s="2">
+        <v>444720</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>69</v>
+      </c>
+      <c r="B72" s="1">
+        <v>329</v>
+      </c>
+      <c r="C72" s="2">
+        <v>472440</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>70</v>
+      </c>
+      <c r="B73" s="1">
+        <v>354</v>
+      </c>
+      <c r="C73" s="2">
+        <v>517360</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>71</v>
+      </c>
+      <c r="B74" s="1">
+        <v>360</v>
+      </c>
+      <c r="C74" s="2">
+        <v>541880</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1">
+        <v>378</v>
+      </c>
+      <c r="C75" s="2">
+        <v>566400</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>73</v>
+      </c>
+      <c r="B76" s="1">
+        <v>396</v>
+      </c>
+      <c r="C76" s="2">
+        <v>590920</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1">
+        <v>414</v>
+      </c>
+      <c r="C77" s="2">
+        <v>615440</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1">
+        <v>440</v>
+      </c>
+      <c r="C78" s="2">
+        <v>639960</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1">
+        <v>466</v>
+      </c>
+      <c r="C79" s="2">
+        <v>664480</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1">
+        <v>492</v>
+      </c>
+      <c r="C80" s="2">
+        <v>689000</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1">
+        <v>524</v>
+      </c>
+      <c r="C81" s="2">
+        <v>703520</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1">
+        <v>556</v>
+      </c>
+      <c r="C82" s="2">
+        <v>718040</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1">
+        <v>588</v>
+      </c>
+      <c r="C83" s="2">
+        <v>729560</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1">
+        <v>620</v>
+      </c>
+      <c r="C84" s="2">
+        <v>750000</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1">
+        <v>662</v>
+      </c>
+      <c r="C85" s="2">
+        <v>771440</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1">
+        <v>704</v>
+      </c>
+      <c r="C86" s="2">
+        <v>798880</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1">
+        <v>746</v>
+      </c>
+      <c r="C87" s="2">
+        <v>836320</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1">
+        <v>788</v>
+      </c>
+      <c r="C88" s="2">
+        <v>853760</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1">
+        <v>830</v>
+      </c>
+      <c r="C89" s="2">
+        <v>881200</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1">
+        <v>872</v>
+      </c>
+      <c r="C90" s="2">
+        <v>918640</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>88</v>
+      </c>
+      <c r="B91" s="1">
+        <v>914</v>
+      </c>
+      <c r="C91" s="2">
+        <v>946080</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>89</v>
+      </c>
+      <c r="B92" s="1">
+        <v>956</v>
+      </c>
+      <c r="C92" s="2">
+        <v>963520</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1">
+        <v>986</v>
+      </c>
+      <c r="C93" s="2">
+        <v>990760</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1">
+        <v>940</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1100</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1000300</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1160</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1000600</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>94</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1220</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1000900</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1280</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1001200</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1340</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1001500</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1001800</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1460</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1002100</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1520</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1002400</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1640</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1002700</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>101</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1680</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1003000</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>102</v>
+      </c>
+      <c r="B105" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1100000</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>103</v>
+      </c>
+      <c r="B106" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1197000</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>104</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1900</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1294000</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>105</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1361000</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>106</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1428000</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>107</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1495000</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>108</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2500</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1562000</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2700</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1629000</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>110</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2800</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1682000</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>111</v>
+      </c>
+      <c r="B114" s="1">
+        <v>3100</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1735000</v>
+      </c>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>112</v>
+      </c>
+      <c r="B115" s="1">
+        <v>3200</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1788000</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>113</v>
+      </c>
+      <c r="B116" s="1">
+        <v>3300</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1821000</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>114</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3400</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1854000</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>115</v>
+      </c>
+      <c r="B118" s="1">
+        <v>3600</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1887000</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>116</v>
+      </c>
+      <c r="B119" s="1">
+        <v>3800</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1920000</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>117</v>
+      </c>
+      <c r="B120" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1953000</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>118</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4200</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1986000</v>
+      </c>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>119</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4400</v>
+      </c>
+      <c r="C122" s="2">
+        <v>2019000</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>120</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4600</v>
+      </c>
+      <c r="C123" s="2">
+        <v>2052000</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>121</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4900</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2085000</v>
+      </c>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>122</v>
+      </c>
+      <c r="B125" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C125" s="2">
+        <v>2118000</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>123</v>
+      </c>
+      <c r="B126" s="1">
+        <v>5500</v>
+      </c>
+      <c r="C126" s="2">
+        <v>2151000</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>124</v>
+      </c>
+      <c r="B127" s="1">
+        <v>5800</v>
+      </c>
+      <c r="C127" s="2">
+        <v>2184000</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>125</v>
+      </c>
+      <c r="B128" s="1">
+        <v>6100</v>
+      </c>
+      <c r="C128" s="2">
+        <v>2217000</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>126</v>
+      </c>
+      <c r="B129" s="1">
+        <v>6400</v>
+      </c>
+      <c r="C129" s="2">
+        <v>2250000</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>127</v>
+      </c>
+      <c r="B130" s="1">
+        <v>6700</v>
+      </c>
+      <c r="C130" s="2">
+        <v>2283000</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>128</v>
+      </c>
+      <c r="B131" s="1">
+        <v>7000</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2316000</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>129</v>
+      </c>
+      <c r="B132" s="1">
+        <v>7300</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2349000</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>130</v>
+      </c>
+      <c r="B133" s="1">
+        <v>7700</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2382000</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>131</v>
+      </c>
+      <c r="B134" s="1">
+        <v>8100</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2415000</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>132</v>
+      </c>
+      <c r="B135" s="1">
+        <v>8700</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2448000</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>133</v>
+      </c>
+      <c r="B136" s="1">
+        <v>8900</v>
+      </c>
+      <c r="C136" s="2">
+        <v>2481000</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>134</v>
+      </c>
+      <c r="B137" s="1">
+        <v>9600</v>
+      </c>
+      <c r="C137" s="2">
+        <v>2514000</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>135</v>
+      </c>
+      <c r="B138" s="1">
+        <v>9900</v>
+      </c>
+      <c r="C138" s="2">
+        <v>2547000</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>136</v>
+      </c>
+      <c r="B139" s="1">
+        <v>10500</v>
+      </c>
+      <c r="C139" s="2">
+        <v>2580000</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>137</v>
+      </c>
+      <c r="B140" s="1">
+        <v>10900</v>
+      </c>
+      <c r="C140" s="2">
+        <v>2613000</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>138</v>
+      </c>
+      <c r="B141" s="1">
+        <v>11300</v>
+      </c>
+      <c r="C141" s="2">
+        <v>2646000</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1">
+        <v>12300</v>
+      </c>
+      <c r="C142" s="2">
+        <v>2679000</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>140</v>
+      </c>
+      <c r="B143" s="1">
+        <v>12800</v>
+      </c>
+      <c r="C143" s="2">
+        <v>2800000</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>141</v>
+      </c>
+      <c r="B144" s="1">
+        <v>13500</v>
+      </c>
+      <c r="C144" s="2">
+        <v>2840000</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>142</v>
+      </c>
+      <c r="B145" s="1">
+        <v>14200</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2880000</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>143</v>
+      </c>
+      <c r="B146" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C146" s="2">
+        <v>2920000</v>
+      </c>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>144</v>
+      </c>
+      <c r="B147" s="1">
+        <v>15800</v>
+      </c>
+      <c r="C147" s="2">
+        <v>2950000</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>145</v>
+      </c>
+      <c r="B148" s="1">
+        <v>16600</v>
+      </c>
+      <c r="C148" s="2">
+        <v>2980000</v>
+      </c>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>146</v>
+      </c>
+      <c r="B149" s="1">
+        <v>17400</v>
+      </c>
+      <c r="C149" s="2">
+        <v>3010000</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>147</v>
+      </c>
+      <c r="B150" s="1">
+        <v>18400</v>
+      </c>
+      <c r="C150" s="2">
+        <v>3040000</v>
+      </c>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>148</v>
+      </c>
+      <c r="B151" s="1">
+        <v>19400</v>
+      </c>
+      <c r="C151" s="2">
+        <v>3070000</v>
+      </c>
+      <c r="E151" s="2"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>149</v>
+      </c>
+      <c r="B152" s="1">
+        <v>20400</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3100000</v>
+      </c>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>150</v>
+      </c>
+      <c r="B153" s="1">
+        <v>21400</v>
+      </c>
+      <c r="C153" s="2">
+        <v>3200000</v>
+      </c>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>151</v>
+      </c>
+      <c r="B154" s="1">
+        <v>23000</v>
+      </c>
+      <c r="C154" s="2">
+        <v>3260000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>152</v>
+      </c>
+      <c r="B155" s="1">
+        <v>24600</v>
+      </c>
+      <c r="C155" s="2">
+        <v>3320000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>153</v>
+      </c>
+      <c r="B156" s="1">
+        <v>26200</v>
+      </c>
+      <c r="C156" s="2">
+        <v>3380000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>154</v>
+      </c>
+      <c r="B157" s="1">
+        <v>27600</v>
+      </c>
+      <c r="C157" s="2">
+        <v>3440000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>155</v>
+      </c>
+      <c r="B158" s="1">
+        <v>29000</v>
+      </c>
+      <c r="C158" s="2">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>156</v>
+      </c>
+      <c r="B159" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C159" s="2">
+        <v>3560000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>157</v>
+      </c>
+      <c r="B160" s="1">
+        <v>31600</v>
+      </c>
+      <c r="C160" s="2">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>158</v>
+      </c>
+      <c r="B161" s="1">
+        <v>33200</v>
+      </c>
+      <c r="C161" s="2">
+        <v>3680000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>159</v>
+      </c>
+      <c r="B162" s="1">
+        <v>34400</v>
+      </c>
+      <c r="C162" s="2">
+        <v>3700000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>160</v>
+      </c>
+      <c r="B163" s="1">
+        <v>35800</v>
+      </c>
+      <c r="C163" s="2">
+        <v>3700000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>161</v>
+      </c>
+      <c r="B164" s="1">
+        <v>38000</v>
+      </c>
+      <c r="C164" s="2">
+        <v>3740000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>162</v>
+      </c>
+      <c r="B165" s="1">
+        <v>40200</v>
+      </c>
+      <c r="C165" s="2">
+        <v>3780000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>163</v>
+      </c>
+      <c r="B166" s="1">
+        <v>42400</v>
+      </c>
+      <c r="C166" s="2">
+        <v>3820000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>164</v>
+      </c>
+      <c r="B167" s="1">
+        <v>44600</v>
+      </c>
+      <c r="C167" s="2">
+        <v>3860000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>165</v>
+      </c>
+      <c r="B168" s="1">
+        <v>46800</v>
+      </c>
+      <c r="C168" s="2">
+        <v>3900000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>166</v>
+      </c>
+      <c r="B169" s="1">
+        <v>49000</v>
+      </c>
+      <c r="C169" s="2">
+        <v>3940000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>167</v>
+      </c>
+      <c r="B170" s="1">
+        <v>51200</v>
+      </c>
+      <c r="C170" s="2">
+        <v>3980000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>168</v>
+      </c>
+      <c r="B171" s="1">
+        <v>53400</v>
+      </c>
+      <c r="C171" s="2">
+        <v>4080000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>169</v>
+      </c>
+      <c r="B172" s="1">
+        <v>55600</v>
+      </c>
+      <c r="C172" s="2">
+        <v>4160000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>170</v>
+      </c>
+      <c r="B173" s="1">
+        <v>59700</v>
+      </c>
+      <c r="C173" s="2">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>171</v>
+      </c>
+      <c r="B174" s="1">
+        <v>64000</v>
+      </c>
+      <c r="C174" s="2">
+        <v>4260000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>172</v>
+      </c>
+      <c r="B175" s="1">
+        <v>68300</v>
+      </c>
+      <c r="C175" s="2">
+        <v>4320000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>173</v>
+      </c>
+      <c r="B176" s="1">
+        <v>72600</v>
+      </c>
+      <c r="C176" s="2">
+        <v>4380000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>174</v>
+      </c>
+      <c r="B177" s="1">
+        <v>76900</v>
+      </c>
+      <c r="C177" s="2">
+        <v>4440000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>175</v>
+      </c>
+      <c r="B178" s="1">
+        <v>81200</v>
+      </c>
+      <c r="C178" s="2">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>176</v>
+      </c>
+      <c r="B179" s="1">
+        <v>85500</v>
+      </c>
+      <c r="C179" s="2">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>177</v>
+      </c>
+      <c r="B180" s="1">
+        <v>89800</v>
+      </c>
+      <c r="C180" s="2">
+        <v>4560000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>178</v>
+      </c>
+      <c r="B181" s="1">
+        <v>94100</v>
+      </c>
+      <c r="C181" s="2">
+        <v>4620000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>179</v>
+      </c>
+      <c r="B182" s="1">
+        <v>98400</v>
+      </c>
+      <c r="C182" s="2">
+        <v>4680000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>180</v>
+      </c>
+      <c r="B183" s="1">
+        <v>99800</v>
+      </c>
+      <c r="C183" s="2">
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>181</v>
+      </c>
+      <c r="B184" s="1">
+        <v>102000</v>
+      </c>
+      <c r="C184" s="2">
+        <v>4760000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>182</v>
+      </c>
+      <c r="B185" s="1">
+        <v>108200</v>
+      </c>
+      <c r="C185" s="2">
+        <v>4820000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>183</v>
+      </c>
+      <c r="B186" s="1">
+        <v>114400</v>
+      </c>
+      <c r="C186" s="2">
+        <v>4880000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>184</v>
+      </c>
+      <c r="B187" s="1">
+        <v>120600</v>
+      </c>
+      <c r="C187" s="2">
+        <v>4940000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>185</v>
+      </c>
+      <c r="B188" s="1">
+        <v>126800</v>
+      </c>
+      <c r="C188" s="2">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>186</v>
+      </c>
+      <c r="B189" s="1">
+        <v>133000</v>
+      </c>
+      <c r="C189" s="2">
+        <v>5040000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>187</v>
+      </c>
+      <c r="B190" s="1">
+        <v>139200</v>
+      </c>
+      <c r="C190" s="2">
+        <v>5080000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>188</v>
+      </c>
+      <c r="B191" s="1">
+        <v>145400</v>
+      </c>
+      <c r="C191" s="2">
+        <v>5120000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>189</v>
+      </c>
+      <c r="B192" s="1">
+        <v>151600</v>
+      </c>
+      <c r="C192" s="2">
+        <v>5180000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>190</v>
+      </c>
+      <c r="B193" s="1">
+        <v>166600</v>
+      </c>
+      <c r="C193" s="2">
+        <v>5200000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>191</v>
+      </c>
+      <c r="B194" s="1">
+        <v>178000</v>
+      </c>
+      <c r="C194" s="2">
+        <v>5260000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>192</v>
+      </c>
+      <c r="B195" s="1">
+        <v>189400</v>
+      </c>
+      <c r="C195" s="2">
+        <v>5320000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>193</v>
+      </c>
+      <c r="B196" s="1">
+        <v>200800</v>
+      </c>
+      <c r="C196" s="2">
+        <v>5380000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>194</v>
+      </c>
+      <c r="B197" s="1">
+        <v>212200</v>
+      </c>
+      <c r="C197" s="2">
+        <v>5440000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>195</v>
+      </c>
+      <c r="B198" s="1">
+        <v>223600</v>
+      </c>
+      <c r="C198" s="2">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>196</v>
+      </c>
+      <c r="B199" s="1">
+        <v>235000</v>
+      </c>
+      <c r="C199" s="2">
+        <v>5560000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>197</v>
+      </c>
+      <c r="B200" s="1">
+        <v>246400</v>
+      </c>
+      <c r="C200" s="2">
+        <v>5620000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>198</v>
+      </c>
+      <c r="B201" s="1">
+        <v>257800</v>
+      </c>
+      <c r="C201" s="2">
+        <v>5680000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>199</v>
+      </c>
+      <c r="B202" s="1">
+        <v>269200</v>
+      </c>
+      <c r="C202" s="2">
+        <v>5740000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>200</v>
+      </c>
+      <c r="B203" s="1">
+        <v>280000</v>
+      </c>
+      <c r="C203" s="2">
+        <v>5800000</v>
       </c>
     </row>
   </sheetData>
@@ -1545,7 +3425,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1561,7 +3441,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableFirePower.xlsx
+++ b/DestroyViruses/Assets/Tables/TableFirePower.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="21800" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>id</t>
   </si>
@@ -48,10 +48,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,7 +69,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,6 +122,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,15 +159,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,29 +177,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,55 +197,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +221,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +257,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,25 +299,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,37 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,13 +365,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,73 +389,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,17 +415,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,6 +444,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -461,15 +485,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,21 +504,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -515,148 +515,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -667,54 +667,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1010,18 +1010,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6634615384615" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="2"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -1045,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3410,14 +3410,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3425,15 +3425,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3441,9 +3441,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/DestroyViruses/Assets/Tables/TableFirePower.xlsx
+++ b/DestroyViruses/Assets/Tables/TableFirePower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21800" windowHeight="9180"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -47,11 +47,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,7 +69,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,17 +90,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,28 +127,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -143,13 +141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -158,9 +149,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,37 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,36 +218,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -263,7 +233,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +263,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +305,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +335,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,49 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,31 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,6 +412,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,28 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +478,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -489,174 +502,161 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -667,54 +667,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1010,18 +1010,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="E503" sqref="E503"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.6634615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="2"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
@@ -3407,6 +3407,3306 @@
       </c>
       <c r="C203" s="2">
         <v>5800000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>201</v>
+      </c>
+      <c r="B204" s="1">
+        <v>290000</v>
+      </c>
+      <c r="C204" s="2">
+        <v>5860000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>202</v>
+      </c>
+      <c r="B205" s="1">
+        <v>300000</v>
+      </c>
+      <c r="C205" s="2">
+        <v>5920000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>203</v>
+      </c>
+      <c r="B206" s="1">
+        <v>310000</v>
+      </c>
+      <c r="C206" s="2">
+        <v>5980000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>204</v>
+      </c>
+      <c r="B207" s="1">
+        <v>320000</v>
+      </c>
+      <c r="C207" s="2">
+        <v>6040000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>205</v>
+      </c>
+      <c r="B208" s="1">
+        <v>330000</v>
+      </c>
+      <c r="C208" s="2">
+        <v>6100000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>206</v>
+      </c>
+      <c r="B209" s="1">
+        <v>340000</v>
+      </c>
+      <c r="C209" s="2">
+        <v>6160000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>207</v>
+      </c>
+      <c r="B210" s="1">
+        <v>350000</v>
+      </c>
+      <c r="C210" s="2">
+        <v>6220000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>208</v>
+      </c>
+      <c r="B211" s="1">
+        <v>360000</v>
+      </c>
+      <c r="C211" s="2">
+        <v>6280000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>209</v>
+      </c>
+      <c r="B212" s="1">
+        <v>370000</v>
+      </c>
+      <c r="C212" s="2">
+        <v>6340000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>210</v>
+      </c>
+      <c r="B213" s="1">
+        <v>380000</v>
+      </c>
+      <c r="C213" s="2">
+        <v>6400000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>211</v>
+      </c>
+      <c r="B214" s="1">
+        <v>390000</v>
+      </c>
+      <c r="C214" s="2">
+        <v>6460000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>212</v>
+      </c>
+      <c r="B215" s="1">
+        <v>400000</v>
+      </c>
+      <c r="C215" s="2">
+        <v>6520000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>213</v>
+      </c>
+      <c r="B216" s="1">
+        <v>410000</v>
+      </c>
+      <c r="C216" s="2">
+        <v>6580000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>214</v>
+      </c>
+      <c r="B217" s="1">
+        <v>420000</v>
+      </c>
+      <c r="C217" s="2">
+        <v>6640000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>215</v>
+      </c>
+      <c r="B218" s="1">
+        <v>430000</v>
+      </c>
+      <c r="C218" s="2">
+        <v>6700000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>216</v>
+      </c>
+      <c r="B219" s="1">
+        <v>440000</v>
+      </c>
+      <c r="C219" s="2">
+        <v>6760000</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>217</v>
+      </c>
+      <c r="B220" s="1">
+        <v>450000</v>
+      </c>
+      <c r="C220" s="2">
+        <v>6820000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>218</v>
+      </c>
+      <c r="B221" s="1">
+        <v>460000</v>
+      </c>
+      <c r="C221" s="2">
+        <v>6880000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>219</v>
+      </c>
+      <c r="B222" s="1">
+        <v>470000</v>
+      </c>
+      <c r="C222" s="2">
+        <v>6940000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>220</v>
+      </c>
+      <c r="B223" s="1">
+        <v>480000</v>
+      </c>
+      <c r="C223" s="2">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>221</v>
+      </c>
+      <c r="B224" s="1">
+        <v>490000</v>
+      </c>
+      <c r="C224" s="2">
+        <v>7060000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>222</v>
+      </c>
+      <c r="B225" s="1">
+        <v>500000</v>
+      </c>
+      <c r="C225" s="2">
+        <v>7120000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>223</v>
+      </c>
+      <c r="B226" s="1">
+        <v>510000</v>
+      </c>
+      <c r="C226" s="2">
+        <v>7180000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>224</v>
+      </c>
+      <c r="B227" s="1">
+        <v>520000</v>
+      </c>
+      <c r="C227" s="2">
+        <v>7240000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>225</v>
+      </c>
+      <c r="B228" s="1">
+        <v>530000</v>
+      </c>
+      <c r="C228" s="2">
+        <v>7300000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>226</v>
+      </c>
+      <c r="B229" s="1">
+        <v>540000</v>
+      </c>
+      <c r="C229" s="2">
+        <v>7360000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>227</v>
+      </c>
+      <c r="B230" s="1">
+        <v>550000</v>
+      </c>
+      <c r="C230" s="2">
+        <v>7420000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>228</v>
+      </c>
+      <c r="B231" s="1">
+        <v>560000</v>
+      </c>
+      <c r="C231" s="2">
+        <v>7480000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>229</v>
+      </c>
+      <c r="B232" s="1">
+        <v>570000</v>
+      </c>
+      <c r="C232" s="2">
+        <v>7540000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>230</v>
+      </c>
+      <c r="B233" s="1">
+        <v>580000</v>
+      </c>
+      <c r="C233" s="2">
+        <v>7600000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>231</v>
+      </c>
+      <c r="B234" s="1">
+        <v>590000</v>
+      </c>
+      <c r="C234" s="2">
+        <v>7660000</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>232</v>
+      </c>
+      <c r="B235" s="1">
+        <v>600000</v>
+      </c>
+      <c r="C235" s="2">
+        <v>7720000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>233</v>
+      </c>
+      <c r="B236" s="1">
+        <v>610000</v>
+      </c>
+      <c r="C236" s="2">
+        <v>7780000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>234</v>
+      </c>
+      <c r="B237" s="1">
+        <v>620000</v>
+      </c>
+      <c r="C237" s="2">
+        <v>7840000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>235</v>
+      </c>
+      <c r="B238" s="1">
+        <v>630000</v>
+      </c>
+      <c r="C238" s="2">
+        <v>7900000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>236</v>
+      </c>
+      <c r="B239" s="1">
+        <v>640000</v>
+      </c>
+      <c r="C239" s="2">
+        <v>7960000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>237</v>
+      </c>
+      <c r="B240" s="1">
+        <v>650000</v>
+      </c>
+      <c r="C240" s="2">
+        <v>8020000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>238</v>
+      </c>
+      <c r="B241" s="1">
+        <v>660000</v>
+      </c>
+      <c r="C241" s="2">
+        <v>8080000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>239</v>
+      </c>
+      <c r="B242" s="1">
+        <v>670000</v>
+      </c>
+      <c r="C242" s="2">
+        <v>8140000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>240</v>
+      </c>
+      <c r="B243" s="1">
+        <v>680000</v>
+      </c>
+      <c r="C243" s="2">
+        <v>8200000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>241</v>
+      </c>
+      <c r="B244" s="1">
+        <v>690000</v>
+      </c>
+      <c r="C244" s="2">
+        <v>8260000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>242</v>
+      </c>
+      <c r="B245" s="1">
+        <v>700000</v>
+      </c>
+      <c r="C245" s="2">
+        <v>8320000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>243</v>
+      </c>
+      <c r="B246" s="1">
+        <v>710000</v>
+      </c>
+      <c r="C246" s="2">
+        <v>8380000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>244</v>
+      </c>
+      <c r="B247" s="1">
+        <v>720000</v>
+      </c>
+      <c r="C247" s="2">
+        <v>8440000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>245</v>
+      </c>
+      <c r="B248" s="1">
+        <v>730000</v>
+      </c>
+      <c r="C248" s="2">
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>246</v>
+      </c>
+      <c r="B249" s="1">
+        <v>740000</v>
+      </c>
+      <c r="C249" s="2">
+        <v>8560000</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>247</v>
+      </c>
+      <c r="B250" s="1">
+        <v>750000</v>
+      </c>
+      <c r="C250" s="2">
+        <v>8620000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>248</v>
+      </c>
+      <c r="B251" s="1">
+        <v>760000</v>
+      </c>
+      <c r="C251" s="2">
+        <v>8680000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>249</v>
+      </c>
+      <c r="B252" s="1">
+        <v>770000</v>
+      </c>
+      <c r="C252" s="2">
+        <v>8740000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>250</v>
+      </c>
+      <c r="B253" s="1">
+        <v>780000</v>
+      </c>
+      <c r="C253" s="2">
+        <v>8800000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>251</v>
+      </c>
+      <c r="B254" s="1">
+        <v>790000</v>
+      </c>
+      <c r="C254" s="2">
+        <v>8860000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>252</v>
+      </c>
+      <c r="B255" s="1">
+        <v>800000</v>
+      </c>
+      <c r="C255" s="2">
+        <v>8920000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>253</v>
+      </c>
+      <c r="B256" s="1">
+        <v>810000</v>
+      </c>
+      <c r="C256" s="2">
+        <v>8980000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>254</v>
+      </c>
+      <c r="B257" s="1">
+        <v>820000</v>
+      </c>
+      <c r="C257" s="2">
+        <v>9040000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>255</v>
+      </c>
+      <c r="B258" s="1">
+        <v>830000</v>
+      </c>
+      <c r="C258" s="2">
+        <v>9100000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>256</v>
+      </c>
+      <c r="B259" s="1">
+        <v>840000</v>
+      </c>
+      <c r="C259" s="2">
+        <v>9160000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>257</v>
+      </c>
+      <c r="B260" s="1">
+        <v>850000</v>
+      </c>
+      <c r="C260" s="2">
+        <v>9220000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>258</v>
+      </c>
+      <c r="B261" s="1">
+        <v>860000</v>
+      </c>
+      <c r="C261" s="2">
+        <v>9280000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>259</v>
+      </c>
+      <c r="B262" s="1">
+        <v>870000</v>
+      </c>
+      <c r="C262" s="2">
+        <v>9340000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>260</v>
+      </c>
+      <c r="B263" s="1">
+        <v>880000</v>
+      </c>
+      <c r="C263" s="2">
+        <v>9400000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>261</v>
+      </c>
+      <c r="B264" s="1">
+        <v>890000</v>
+      </c>
+      <c r="C264" s="2">
+        <v>9460000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>262</v>
+      </c>
+      <c r="B265" s="1">
+        <v>900000</v>
+      </c>
+      <c r="C265" s="2">
+        <v>9520000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>263</v>
+      </c>
+      <c r="B266" s="1">
+        <v>910000</v>
+      </c>
+      <c r="C266" s="2">
+        <v>9580000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>264</v>
+      </c>
+      <c r="B267" s="1">
+        <v>920000</v>
+      </c>
+      <c r="C267" s="2">
+        <v>9640000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>265</v>
+      </c>
+      <c r="B268" s="1">
+        <v>930000</v>
+      </c>
+      <c r="C268" s="2">
+        <v>9700000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>266</v>
+      </c>
+      <c r="B269" s="1">
+        <v>940000</v>
+      </c>
+      <c r="C269" s="2">
+        <v>9760000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>267</v>
+      </c>
+      <c r="B270" s="1">
+        <v>950000</v>
+      </c>
+      <c r="C270" s="2">
+        <v>9820000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>268</v>
+      </c>
+      <c r="B271" s="1">
+        <v>960000</v>
+      </c>
+      <c r="C271" s="2">
+        <v>9880000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>269</v>
+      </c>
+      <c r="B272" s="1">
+        <v>970000</v>
+      </c>
+      <c r="C272" s="2">
+        <v>9940000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>270</v>
+      </c>
+      <c r="B273" s="1">
+        <v>980000</v>
+      </c>
+      <c r="C273" s="2">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>271</v>
+      </c>
+      <c r="B274" s="1">
+        <v>990000</v>
+      </c>
+      <c r="C274" s="2">
+        <v>10060000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>272</v>
+      </c>
+      <c r="B275" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C275" s="2">
+        <v>10120000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>273</v>
+      </c>
+      <c r="B276" s="1">
+        <v>1010000</v>
+      </c>
+      <c r="C276" s="2">
+        <v>10180000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>274</v>
+      </c>
+      <c r="B277" s="1">
+        <v>1020000</v>
+      </c>
+      <c r="C277" s="2">
+        <v>10240000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>275</v>
+      </c>
+      <c r="B278" s="1">
+        <v>1030000</v>
+      </c>
+      <c r="C278" s="2">
+        <v>10300000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>276</v>
+      </c>
+      <c r="B279" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="C279" s="2">
+        <v>10360000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>277</v>
+      </c>
+      <c r="B280" s="1">
+        <v>1050000</v>
+      </c>
+      <c r="C280" s="2">
+        <v>10420000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>278</v>
+      </c>
+      <c r="B281" s="1">
+        <v>1060000</v>
+      </c>
+      <c r="C281" s="2">
+        <v>10480000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>279</v>
+      </c>
+      <c r="B282" s="1">
+        <v>1070000</v>
+      </c>
+      <c r="C282" s="2">
+        <v>10540000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>280</v>
+      </c>
+      <c r="B283" s="1">
+        <v>1080000</v>
+      </c>
+      <c r="C283" s="2">
+        <v>10600000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>281</v>
+      </c>
+      <c r="B284" s="1">
+        <v>1090000</v>
+      </c>
+      <c r="C284" s="2">
+        <v>10660000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>282</v>
+      </c>
+      <c r="B285" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="C285" s="2">
+        <v>10720000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>283</v>
+      </c>
+      <c r="B286" s="1">
+        <v>1110000</v>
+      </c>
+      <c r="C286" s="2">
+        <v>10780000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>284</v>
+      </c>
+      <c r="B287" s="1">
+        <v>1120000</v>
+      </c>
+      <c r="C287" s="2">
+        <v>10840000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>285</v>
+      </c>
+      <c r="B288" s="1">
+        <v>1130000</v>
+      </c>
+      <c r="C288" s="2">
+        <v>10900000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>286</v>
+      </c>
+      <c r="B289" s="1">
+        <v>1140000</v>
+      </c>
+      <c r="C289" s="2">
+        <v>10960000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>287</v>
+      </c>
+      <c r="B290" s="1">
+        <v>1150000</v>
+      </c>
+      <c r="C290" s="2">
+        <v>11020000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>288</v>
+      </c>
+      <c r="B291" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="C291" s="2">
+        <v>11080000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>289</v>
+      </c>
+      <c r="B292" s="1">
+        <v>1170000</v>
+      </c>
+      <c r="C292" s="2">
+        <v>11140000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>290</v>
+      </c>
+      <c r="B293" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="C293" s="2">
+        <v>11200000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>291</v>
+      </c>
+      <c r="B294" s="1">
+        <v>1190000</v>
+      </c>
+      <c r="C294" s="2">
+        <v>11260000</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>292</v>
+      </c>
+      <c r="B295" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="C295" s="2">
+        <v>11320000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>293</v>
+      </c>
+      <c r="B296" s="1">
+        <v>1210000</v>
+      </c>
+      <c r="C296" s="2">
+        <v>11380000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>294</v>
+      </c>
+      <c r="B297" s="1">
+        <v>1220000</v>
+      </c>
+      <c r="C297" s="2">
+        <v>11440000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>295</v>
+      </c>
+      <c r="B298" s="1">
+        <v>1230000</v>
+      </c>
+      <c r="C298" s="2">
+        <v>11500000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>296</v>
+      </c>
+      <c r="B299" s="1">
+        <v>1240000</v>
+      </c>
+      <c r="C299" s="2">
+        <v>11560000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>297</v>
+      </c>
+      <c r="B300" s="1">
+        <v>1250000</v>
+      </c>
+      <c r="C300" s="2">
+        <v>11620000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>298</v>
+      </c>
+      <c r="B301" s="1">
+        <v>1260000</v>
+      </c>
+      <c r="C301" s="2">
+        <v>11680000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>299</v>
+      </c>
+      <c r="B302" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="C302" s="2">
+        <v>11740000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>300</v>
+      </c>
+      <c r="B303" s="1">
+        <v>1280000</v>
+      </c>
+      <c r="C303" s="2">
+        <v>11800000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>301</v>
+      </c>
+      <c r="B304" s="1">
+        <v>1292000</v>
+      </c>
+      <c r="C304" s="2">
+        <v>11860000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>302</v>
+      </c>
+      <c r="B305" s="1">
+        <v>1304000</v>
+      </c>
+      <c r="C305" s="2">
+        <v>11920000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>303</v>
+      </c>
+      <c r="B306" s="1">
+        <v>1316000</v>
+      </c>
+      <c r="C306" s="2">
+        <v>11980000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>304</v>
+      </c>
+      <c r="B307" s="1">
+        <v>1328000</v>
+      </c>
+      <c r="C307" s="2">
+        <v>12040000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>305</v>
+      </c>
+      <c r="B308" s="1">
+        <v>1340000</v>
+      </c>
+      <c r="C308" s="2">
+        <v>12100000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>306</v>
+      </c>
+      <c r="B309" s="1">
+        <v>1352000</v>
+      </c>
+      <c r="C309" s="2">
+        <v>12160000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>307</v>
+      </c>
+      <c r="B310" s="1">
+        <v>1364000</v>
+      </c>
+      <c r="C310" s="2">
+        <v>12220000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>308</v>
+      </c>
+      <c r="B311" s="1">
+        <v>1376000</v>
+      </c>
+      <c r="C311" s="2">
+        <v>12280000</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>309</v>
+      </c>
+      <c r="B312" s="1">
+        <v>1388000</v>
+      </c>
+      <c r="C312" s="2">
+        <v>12340000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>310</v>
+      </c>
+      <c r="B313" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="C313" s="2">
+        <v>12400000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>311</v>
+      </c>
+      <c r="B314" s="1">
+        <v>1412000</v>
+      </c>
+      <c r="C314" s="2">
+        <v>12460000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>312</v>
+      </c>
+      <c r="B315" s="1">
+        <v>1424000</v>
+      </c>
+      <c r="C315" s="2">
+        <v>12520000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>313</v>
+      </c>
+      <c r="B316" s="1">
+        <v>1436000</v>
+      </c>
+      <c r="C316" s="2">
+        <v>12580000</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>314</v>
+      </c>
+      <c r="B317" s="1">
+        <v>1448000</v>
+      </c>
+      <c r="C317" s="2">
+        <v>12640000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>315</v>
+      </c>
+      <c r="B318" s="1">
+        <v>1460000</v>
+      </c>
+      <c r="C318" s="2">
+        <v>12700000</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>316</v>
+      </c>
+      <c r="B319" s="1">
+        <v>1472000</v>
+      </c>
+      <c r="C319" s="2">
+        <v>12760000</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>317</v>
+      </c>
+      <c r="B320" s="1">
+        <v>1484000</v>
+      </c>
+      <c r="C320" s="2">
+        <v>12820000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>318</v>
+      </c>
+      <c r="B321" s="1">
+        <v>1496000</v>
+      </c>
+      <c r="C321" s="2">
+        <v>12880000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>319</v>
+      </c>
+      <c r="B322" s="1">
+        <v>1508000</v>
+      </c>
+      <c r="C322" s="2">
+        <v>12940000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>320</v>
+      </c>
+      <c r="B323" s="1">
+        <v>1520000</v>
+      </c>
+      <c r="C323" s="2">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>321</v>
+      </c>
+      <c r="B324" s="1">
+        <v>1532000</v>
+      </c>
+      <c r="C324" s="2">
+        <v>13060000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>322</v>
+      </c>
+      <c r="B325" s="1">
+        <v>1544000</v>
+      </c>
+      <c r="C325" s="2">
+        <v>13120000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>323</v>
+      </c>
+      <c r="B326" s="1">
+        <v>1556000</v>
+      </c>
+      <c r="C326" s="2">
+        <v>13180000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>324</v>
+      </c>
+      <c r="B327" s="1">
+        <v>1568000</v>
+      </c>
+      <c r="C327" s="2">
+        <v>13240000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>325</v>
+      </c>
+      <c r="B328" s="1">
+        <v>1580000</v>
+      </c>
+      <c r="C328" s="2">
+        <v>13300000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>326</v>
+      </c>
+      <c r="B329" s="1">
+        <v>1592000</v>
+      </c>
+      <c r="C329" s="2">
+        <v>13360000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>327</v>
+      </c>
+      <c r="B330" s="1">
+        <v>1604000</v>
+      </c>
+      <c r="C330" s="2">
+        <v>13420000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>328</v>
+      </c>
+      <c r="B331" s="1">
+        <v>1616000</v>
+      </c>
+      <c r="C331" s="2">
+        <v>13480000</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>329</v>
+      </c>
+      <c r="B332" s="1">
+        <v>1628000</v>
+      </c>
+      <c r="C332" s="2">
+        <v>13540000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>330</v>
+      </c>
+      <c r="B333" s="1">
+        <v>1640000</v>
+      </c>
+      <c r="C333" s="2">
+        <v>13600000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>331</v>
+      </c>
+      <c r="B334" s="1">
+        <v>1652000</v>
+      </c>
+      <c r="C334" s="2">
+        <v>13660000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>332</v>
+      </c>
+      <c r="B335" s="1">
+        <v>1664000</v>
+      </c>
+      <c r="C335" s="2">
+        <v>13720000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>333</v>
+      </c>
+      <c r="B336" s="1">
+        <v>1676000</v>
+      </c>
+      <c r="C336" s="2">
+        <v>13780000</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>334</v>
+      </c>
+      <c r="B337" s="1">
+        <v>1688000</v>
+      </c>
+      <c r="C337" s="2">
+        <v>13840000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>335</v>
+      </c>
+      <c r="B338" s="1">
+        <v>1700000</v>
+      </c>
+      <c r="C338" s="2">
+        <v>13900000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1">
+        <v>336</v>
+      </c>
+      <c r="B339" s="1">
+        <v>1712000</v>
+      </c>
+      <c r="C339" s="2">
+        <v>13960000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
+        <v>337</v>
+      </c>
+      <c r="B340" s="1">
+        <v>1724000</v>
+      </c>
+      <c r="C340" s="2">
+        <v>14020000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1">
+        <v>338</v>
+      </c>
+      <c r="B341" s="1">
+        <v>1736000</v>
+      </c>
+      <c r="C341" s="2">
+        <v>14080000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1">
+        <v>339</v>
+      </c>
+      <c r="B342" s="1">
+        <v>1748000</v>
+      </c>
+      <c r="C342" s="2">
+        <v>14140000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>340</v>
+      </c>
+      <c r="B343" s="1">
+        <v>1760000</v>
+      </c>
+      <c r="C343" s="2">
+        <v>14200000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1">
+        <v>341</v>
+      </c>
+      <c r="B344" s="1">
+        <v>1772000</v>
+      </c>
+      <c r="C344" s="2">
+        <v>14260000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1">
+        <v>342</v>
+      </c>
+      <c r="B345" s="1">
+        <v>1784000</v>
+      </c>
+      <c r="C345" s="2">
+        <v>14320000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1">
+        <v>343</v>
+      </c>
+      <c r="B346" s="1">
+        <v>1796000</v>
+      </c>
+      <c r="C346" s="2">
+        <v>14380000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1">
+        <v>344</v>
+      </c>
+      <c r="B347" s="1">
+        <v>1808000</v>
+      </c>
+      <c r="C347" s="2">
+        <v>14440000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
+        <v>345</v>
+      </c>
+      <c r="B348" s="1">
+        <v>1820000</v>
+      </c>
+      <c r="C348" s="2">
+        <v>14500000</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
+        <v>346</v>
+      </c>
+      <c r="B349" s="1">
+        <v>1832000</v>
+      </c>
+      <c r="C349" s="2">
+        <v>14560000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1">
+        <v>347</v>
+      </c>
+      <c r="B350" s="1">
+        <v>1844000</v>
+      </c>
+      <c r="C350" s="2">
+        <v>14620000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1">
+        <v>348</v>
+      </c>
+      <c r="B351" s="1">
+        <v>1856000</v>
+      </c>
+      <c r="C351" s="2">
+        <v>14680000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1">
+        <v>349</v>
+      </c>
+      <c r="B352" s="1">
+        <v>1868000</v>
+      </c>
+      <c r="C352" s="2">
+        <v>14740000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1">
+        <v>350</v>
+      </c>
+      <c r="B353" s="1">
+        <v>1880000</v>
+      </c>
+      <c r="C353" s="2">
+        <v>14800000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1">
+        <v>351</v>
+      </c>
+      <c r="B354" s="1">
+        <v>1892000</v>
+      </c>
+      <c r="C354" s="2">
+        <v>14860000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1">
+        <v>352</v>
+      </c>
+      <c r="B355" s="1">
+        <v>1904000</v>
+      </c>
+      <c r="C355" s="2">
+        <v>14920000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>353</v>
+      </c>
+      <c r="B356" s="1">
+        <v>1916000</v>
+      </c>
+      <c r="C356" s="2">
+        <v>14980000</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1">
+        <v>354</v>
+      </c>
+      <c r="B357" s="1">
+        <v>1928000</v>
+      </c>
+      <c r="C357" s="2">
+        <v>15040000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>355</v>
+      </c>
+      <c r="B358" s="1">
+        <v>1940000</v>
+      </c>
+      <c r="C358" s="2">
+        <v>15100000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1">
+        <v>356</v>
+      </c>
+      <c r="B359" s="1">
+        <v>1952000</v>
+      </c>
+      <c r="C359" s="2">
+        <v>15160000</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1">
+        <v>357</v>
+      </c>
+      <c r="B360" s="1">
+        <v>1964000</v>
+      </c>
+      <c r="C360" s="2">
+        <v>15220000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1">
+        <v>358</v>
+      </c>
+      <c r="B361" s="1">
+        <v>1976000</v>
+      </c>
+      <c r="C361" s="2">
+        <v>15280000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1">
+        <v>359</v>
+      </c>
+      <c r="B362" s="1">
+        <v>1988000</v>
+      </c>
+      <c r="C362" s="2">
+        <v>15340000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1">
+        <v>360</v>
+      </c>
+      <c r="B363" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="C363" s="2">
+        <v>15400000</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1">
+        <v>361</v>
+      </c>
+      <c r="B364" s="1">
+        <v>2012000</v>
+      </c>
+      <c r="C364" s="2">
+        <v>15460000</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1">
+        <v>362</v>
+      </c>
+      <c r="B365" s="1">
+        <v>2024000</v>
+      </c>
+      <c r="C365" s="2">
+        <v>15520000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1">
+        <v>363</v>
+      </c>
+      <c r="B366" s="1">
+        <v>2036000</v>
+      </c>
+      <c r="C366" s="2">
+        <v>15580000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1">
+        <v>364</v>
+      </c>
+      <c r="B367" s="1">
+        <v>2048000</v>
+      </c>
+      <c r="C367" s="2">
+        <v>15640000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1">
+        <v>365</v>
+      </c>
+      <c r="B368" s="1">
+        <v>2060000</v>
+      </c>
+      <c r="C368" s="2">
+        <v>15700000</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1">
+        <v>366</v>
+      </c>
+      <c r="B369" s="1">
+        <v>2072000</v>
+      </c>
+      <c r="C369" s="2">
+        <v>15760000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1">
+        <v>367</v>
+      </c>
+      <c r="B370" s="1">
+        <v>2084000</v>
+      </c>
+      <c r="C370" s="2">
+        <v>15820000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1">
+        <v>368</v>
+      </c>
+      <c r="B371" s="1">
+        <v>2096000</v>
+      </c>
+      <c r="C371" s="2">
+        <v>15880000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1">
+        <v>369</v>
+      </c>
+      <c r="B372" s="1">
+        <v>2108000</v>
+      </c>
+      <c r="C372" s="2">
+        <v>15940000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1">
+        <v>370</v>
+      </c>
+      <c r="B373" s="1">
+        <v>2120000</v>
+      </c>
+      <c r="C373" s="2">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1">
+        <v>371</v>
+      </c>
+      <c r="B374" s="1">
+        <v>2132000</v>
+      </c>
+      <c r="C374" s="2">
+        <v>16060000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1">
+        <v>372</v>
+      </c>
+      <c r="B375" s="1">
+        <v>2144000</v>
+      </c>
+      <c r="C375" s="2">
+        <v>16120000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1">
+        <v>373</v>
+      </c>
+      <c r="B376" s="1">
+        <v>2156000</v>
+      </c>
+      <c r="C376" s="2">
+        <v>16180000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1">
+        <v>374</v>
+      </c>
+      <c r="B377" s="1">
+        <v>2168000</v>
+      </c>
+      <c r="C377" s="2">
+        <v>16240000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1">
+        <v>375</v>
+      </c>
+      <c r="B378" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="C378" s="2">
+        <v>16300000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1">
+        <v>376</v>
+      </c>
+      <c r="B379" s="1">
+        <v>2192000</v>
+      </c>
+      <c r="C379" s="2">
+        <v>16360000</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1">
+        <v>377</v>
+      </c>
+      <c r="B380" s="1">
+        <v>2204000</v>
+      </c>
+      <c r="C380" s="2">
+        <v>16420000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1">
+        <v>378</v>
+      </c>
+      <c r="B381" s="1">
+        <v>2216000</v>
+      </c>
+      <c r="C381" s="2">
+        <v>16480000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1">
+        <v>379</v>
+      </c>
+      <c r="B382" s="1">
+        <v>2228000</v>
+      </c>
+      <c r="C382" s="2">
+        <v>16540000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1">
+        <v>380</v>
+      </c>
+      <c r="B383" s="1">
+        <v>2240000</v>
+      </c>
+      <c r="C383" s="2">
+        <v>16600000</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1">
+        <v>381</v>
+      </c>
+      <c r="B384" s="1">
+        <v>2252000</v>
+      </c>
+      <c r="C384" s="2">
+        <v>16660000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1">
+        <v>382</v>
+      </c>
+      <c r="B385" s="1">
+        <v>2264000</v>
+      </c>
+      <c r="C385" s="2">
+        <v>16720000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1">
+        <v>383</v>
+      </c>
+      <c r="B386" s="1">
+        <v>2276000</v>
+      </c>
+      <c r="C386" s="2">
+        <v>16780000</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1">
+        <v>384</v>
+      </c>
+      <c r="B387" s="1">
+        <v>2288000</v>
+      </c>
+      <c r="C387" s="2">
+        <v>16840000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1">
+        <v>385</v>
+      </c>
+      <c r="B388" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="C388" s="2">
+        <v>16900000</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1">
+        <v>386</v>
+      </c>
+      <c r="B389" s="1">
+        <v>2312000</v>
+      </c>
+      <c r="C389" s="2">
+        <v>16960000</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1">
+        <v>387</v>
+      </c>
+      <c r="B390" s="1">
+        <v>2324000</v>
+      </c>
+      <c r="C390" s="2">
+        <v>17020000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1">
+        <v>388</v>
+      </c>
+      <c r="B391" s="1">
+        <v>2336000</v>
+      </c>
+      <c r="C391" s="2">
+        <v>17080000</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1">
+        <v>389</v>
+      </c>
+      <c r="B392" s="1">
+        <v>2348000</v>
+      </c>
+      <c r="C392" s="2">
+        <v>17140000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1">
+        <v>390</v>
+      </c>
+      <c r="B393" s="1">
+        <v>2360000</v>
+      </c>
+      <c r="C393" s="2">
+        <v>17200000</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1">
+        <v>391</v>
+      </c>
+      <c r="B394" s="1">
+        <v>2372000</v>
+      </c>
+      <c r="C394" s="2">
+        <v>17260000</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1">
+        <v>392</v>
+      </c>
+      <c r="B395" s="1">
+        <v>2384000</v>
+      </c>
+      <c r="C395" s="2">
+        <v>17320000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1">
+        <v>393</v>
+      </c>
+      <c r="B396" s="1">
+        <v>2396000</v>
+      </c>
+      <c r="C396" s="2">
+        <v>17380000</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1">
+        <v>394</v>
+      </c>
+      <c r="B397" s="1">
+        <v>2408000</v>
+      </c>
+      <c r="C397" s="2">
+        <v>17440000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1">
+        <v>395</v>
+      </c>
+      <c r="B398" s="1">
+        <v>2420000</v>
+      </c>
+      <c r="C398" s="2">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1">
+        <v>396</v>
+      </c>
+      <c r="B399" s="1">
+        <v>2432000</v>
+      </c>
+      <c r="C399" s="2">
+        <v>17560000</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1">
+        <v>397</v>
+      </c>
+      <c r="B400" s="1">
+        <v>2444000</v>
+      </c>
+      <c r="C400" s="2">
+        <v>17620000</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1">
+        <v>398</v>
+      </c>
+      <c r="B401" s="1">
+        <v>2456000</v>
+      </c>
+      <c r="C401" s="2">
+        <v>17680000</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1">
+        <v>399</v>
+      </c>
+      <c r="B402" s="1">
+        <v>2468000</v>
+      </c>
+      <c r="C402" s="2">
+        <v>17740000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1">
+        <v>400</v>
+      </c>
+      <c r="B403" s="1">
+        <v>2480000</v>
+      </c>
+      <c r="C403" s="2">
+        <v>17800000</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1">
+        <v>401</v>
+      </c>
+      <c r="B404" s="1">
+        <v>2489600</v>
+      </c>
+      <c r="C404" s="2">
+        <v>17860000</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1">
+        <v>402</v>
+      </c>
+      <c r="B405" s="1">
+        <v>2499200</v>
+      </c>
+      <c r="C405" s="2">
+        <v>17920000</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1">
+        <v>403</v>
+      </c>
+      <c r="B406" s="1">
+        <v>2508800</v>
+      </c>
+      <c r="C406" s="2">
+        <v>17980000</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1">
+        <v>404</v>
+      </c>
+      <c r="B407" s="1">
+        <v>2518400</v>
+      </c>
+      <c r="C407" s="2">
+        <v>18040000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1">
+        <v>405</v>
+      </c>
+      <c r="B408" s="1">
+        <v>2528000</v>
+      </c>
+      <c r="C408" s="2">
+        <v>18100000</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1">
+        <v>406</v>
+      </c>
+      <c r="B409" s="1">
+        <v>2537600</v>
+      </c>
+      <c r="C409" s="2">
+        <v>18160000</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1">
+        <v>407</v>
+      </c>
+      <c r="B410" s="1">
+        <v>2547200</v>
+      </c>
+      <c r="C410" s="2">
+        <v>18220000</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1">
+        <v>408</v>
+      </c>
+      <c r="B411" s="1">
+        <v>2556800</v>
+      </c>
+      <c r="C411" s="2">
+        <v>18280000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1">
+        <v>409</v>
+      </c>
+      <c r="B412" s="1">
+        <v>2566400</v>
+      </c>
+      <c r="C412" s="2">
+        <v>18340000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1">
+        <v>410</v>
+      </c>
+      <c r="B413" s="1">
+        <v>2576000</v>
+      </c>
+      <c r="C413" s="2">
+        <v>18400000</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1">
+        <v>411</v>
+      </c>
+      <c r="B414" s="1">
+        <v>2585600</v>
+      </c>
+      <c r="C414" s="2">
+        <v>18460000</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1">
+        <v>412</v>
+      </c>
+      <c r="B415" s="1">
+        <v>2595200</v>
+      </c>
+      <c r="C415" s="2">
+        <v>18520000</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1">
+        <v>413</v>
+      </c>
+      <c r="B416" s="1">
+        <v>2604800</v>
+      </c>
+      <c r="C416" s="2">
+        <v>18580000</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1">
+        <v>414</v>
+      </c>
+      <c r="B417" s="1">
+        <v>2614400</v>
+      </c>
+      <c r="C417" s="2">
+        <v>18640000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1">
+        <v>415</v>
+      </c>
+      <c r="B418" s="1">
+        <v>2624000</v>
+      </c>
+      <c r="C418" s="2">
+        <v>18700000</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1">
+        <v>416</v>
+      </c>
+      <c r="B419" s="1">
+        <v>2633600</v>
+      </c>
+      <c r="C419" s="2">
+        <v>18760000</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1">
+        <v>417</v>
+      </c>
+      <c r="B420" s="1">
+        <v>2643200</v>
+      </c>
+      <c r="C420" s="2">
+        <v>18820000</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1">
+        <v>418</v>
+      </c>
+      <c r="B421" s="1">
+        <v>2652800</v>
+      </c>
+      <c r="C421" s="2">
+        <v>18880000</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1">
+        <v>419</v>
+      </c>
+      <c r="B422" s="1">
+        <v>2662400</v>
+      </c>
+      <c r="C422" s="2">
+        <v>18940000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1">
+        <v>420</v>
+      </c>
+      <c r="B423" s="1">
+        <v>2672000</v>
+      </c>
+      <c r="C423" s="2">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1">
+        <v>421</v>
+      </c>
+      <c r="B424" s="1">
+        <v>2681600</v>
+      </c>
+      <c r="C424" s="2">
+        <v>19060000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1">
+        <v>422</v>
+      </c>
+      <c r="B425" s="1">
+        <v>2691200</v>
+      </c>
+      <c r="C425" s="2">
+        <v>19120000</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1">
+        <v>423</v>
+      </c>
+      <c r="B426" s="1">
+        <v>2700800</v>
+      </c>
+      <c r="C426" s="2">
+        <v>19180000</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1">
+        <v>424</v>
+      </c>
+      <c r="B427" s="1">
+        <v>2710400</v>
+      </c>
+      <c r="C427" s="2">
+        <v>19240000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1">
+        <v>425</v>
+      </c>
+      <c r="B428" s="1">
+        <v>2720000</v>
+      </c>
+      <c r="C428" s="2">
+        <v>19300000</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1">
+        <v>426</v>
+      </c>
+      <c r="B429" s="1">
+        <v>2729600</v>
+      </c>
+      <c r="C429" s="2">
+        <v>19360000</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1">
+        <v>427</v>
+      </c>
+      <c r="B430" s="1">
+        <v>2739200</v>
+      </c>
+      <c r="C430" s="2">
+        <v>19420000</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1">
+        <v>428</v>
+      </c>
+      <c r="B431" s="1">
+        <v>2748800</v>
+      </c>
+      <c r="C431" s="2">
+        <v>19480000</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1">
+        <v>429</v>
+      </c>
+      <c r="B432" s="1">
+        <v>2758400</v>
+      </c>
+      <c r="C432" s="2">
+        <v>19540000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1">
+        <v>430</v>
+      </c>
+      <c r="B433" s="1">
+        <v>2768000</v>
+      </c>
+      <c r="C433" s="2">
+        <v>19600000</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1">
+        <v>431</v>
+      </c>
+      <c r="B434" s="1">
+        <v>2777600</v>
+      </c>
+      <c r="C434" s="2">
+        <v>19660000</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1">
+        <v>432</v>
+      </c>
+      <c r="B435" s="1">
+        <v>2787200</v>
+      </c>
+      <c r="C435" s="2">
+        <v>19720000</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1">
+        <v>433</v>
+      </c>
+      <c r="B436" s="1">
+        <v>2796800</v>
+      </c>
+      <c r="C436" s="2">
+        <v>19780000</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1">
+        <v>434</v>
+      </c>
+      <c r="B437" s="1">
+        <v>2806400</v>
+      </c>
+      <c r="C437" s="2">
+        <v>19840000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1">
+        <v>435</v>
+      </c>
+      <c r="B438" s="1">
+        <v>2816000</v>
+      </c>
+      <c r="C438" s="2">
+        <v>19900000</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1">
+        <v>436</v>
+      </c>
+      <c r="B439" s="1">
+        <v>2825600</v>
+      </c>
+      <c r="C439" s="2">
+        <v>19960000</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1">
+        <v>437</v>
+      </c>
+      <c r="B440" s="1">
+        <v>2835200</v>
+      </c>
+      <c r="C440" s="2">
+        <v>20020000</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1">
+        <v>438</v>
+      </c>
+      <c r="B441" s="1">
+        <v>2844800</v>
+      </c>
+      <c r="C441" s="2">
+        <v>20080000</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1">
+        <v>439</v>
+      </c>
+      <c r="B442" s="1">
+        <v>2854400</v>
+      </c>
+      <c r="C442" s="2">
+        <v>20140000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1">
+        <v>440</v>
+      </c>
+      <c r="B443" s="1">
+        <v>2864000</v>
+      </c>
+      <c r="C443" s="2">
+        <v>20200000</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1">
+        <v>441</v>
+      </c>
+      <c r="B444" s="1">
+        <v>2873600</v>
+      </c>
+      <c r="C444" s="2">
+        <v>20260000</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1">
+        <v>442</v>
+      </c>
+      <c r="B445" s="1">
+        <v>2883200</v>
+      </c>
+      <c r="C445" s="2">
+        <v>20320000</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1">
+        <v>443</v>
+      </c>
+      <c r="B446" s="1">
+        <v>2892800</v>
+      </c>
+      <c r="C446" s="2">
+        <v>20380000</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1">
+        <v>444</v>
+      </c>
+      <c r="B447" s="1">
+        <v>2902400</v>
+      </c>
+      <c r="C447" s="2">
+        <v>20440000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1">
+        <v>445</v>
+      </c>
+      <c r="B448" s="1">
+        <v>2912000</v>
+      </c>
+      <c r="C448" s="2">
+        <v>20500000</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1">
+        <v>446</v>
+      </c>
+      <c r="B449" s="1">
+        <v>2921600</v>
+      </c>
+      <c r="C449" s="2">
+        <v>20560000</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1">
+        <v>447</v>
+      </c>
+      <c r="B450" s="1">
+        <v>2931200</v>
+      </c>
+      <c r="C450" s="2">
+        <v>20620000</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1">
+        <v>448</v>
+      </c>
+      <c r="B451" s="1">
+        <v>2940800</v>
+      </c>
+      <c r="C451" s="2">
+        <v>20680000</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1">
+        <v>449</v>
+      </c>
+      <c r="B452" s="1">
+        <v>2950400</v>
+      </c>
+      <c r="C452" s="2">
+        <v>20740000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1">
+        <v>450</v>
+      </c>
+      <c r="B453" s="1">
+        <v>2960000</v>
+      </c>
+      <c r="C453" s="2">
+        <v>20800000</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1">
+        <v>451</v>
+      </c>
+      <c r="B454" s="1">
+        <v>2969600</v>
+      </c>
+      <c r="C454" s="2">
+        <v>20860000</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1">
+        <v>452</v>
+      </c>
+      <c r="B455" s="1">
+        <v>2979200</v>
+      </c>
+      <c r="C455" s="2">
+        <v>20920000</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1">
+        <v>453</v>
+      </c>
+      <c r="B456" s="1">
+        <v>2988800</v>
+      </c>
+      <c r="C456" s="2">
+        <v>20980000</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1">
+        <v>454</v>
+      </c>
+      <c r="B457" s="1">
+        <v>2998400</v>
+      </c>
+      <c r="C457" s="2">
+        <v>21040000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1">
+        <v>455</v>
+      </c>
+      <c r="B458" s="1">
+        <v>3008000</v>
+      </c>
+      <c r="C458" s="2">
+        <v>21100000</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1">
+        <v>456</v>
+      </c>
+      <c r="B459" s="1">
+        <v>3017600</v>
+      </c>
+      <c r="C459" s="2">
+        <v>21160000</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1">
+        <v>457</v>
+      </c>
+      <c r="B460" s="1">
+        <v>3027200</v>
+      </c>
+      <c r="C460" s="2">
+        <v>21220000</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1">
+        <v>458</v>
+      </c>
+      <c r="B461" s="1">
+        <v>3036800</v>
+      </c>
+      <c r="C461" s="2">
+        <v>21280000</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1">
+        <v>459</v>
+      </c>
+      <c r="B462" s="1">
+        <v>3046400</v>
+      </c>
+      <c r="C462" s="2">
+        <v>21340000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1">
+        <v>460</v>
+      </c>
+      <c r="B463" s="1">
+        <v>3056000</v>
+      </c>
+      <c r="C463" s="2">
+        <v>21400000</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1">
+        <v>461</v>
+      </c>
+      <c r="B464" s="1">
+        <v>3065600</v>
+      </c>
+      <c r="C464" s="2">
+        <v>21460000</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1">
+        <v>462</v>
+      </c>
+      <c r="B465" s="1">
+        <v>3075200</v>
+      </c>
+      <c r="C465" s="2">
+        <v>21520000</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1">
+        <v>463</v>
+      </c>
+      <c r="B466" s="1">
+        <v>3084800</v>
+      </c>
+      <c r="C466" s="2">
+        <v>21580000</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1">
+        <v>464</v>
+      </c>
+      <c r="B467" s="1">
+        <v>3094400</v>
+      </c>
+      <c r="C467" s="2">
+        <v>21640000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>465</v>
+      </c>
+      <c r="B468" s="1">
+        <v>3104000</v>
+      </c>
+      <c r="C468" s="2">
+        <v>21700000</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1">
+        <v>466</v>
+      </c>
+      <c r="B469" s="1">
+        <v>3113600</v>
+      </c>
+      <c r="C469" s="2">
+        <v>21760000</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
+        <v>467</v>
+      </c>
+      <c r="B470" s="1">
+        <v>3123200</v>
+      </c>
+      <c r="C470" s="2">
+        <v>21820000</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1">
+        <v>468</v>
+      </c>
+      <c r="B471" s="1">
+        <v>3132800</v>
+      </c>
+      <c r="C471" s="2">
+        <v>21880000</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1">
+        <v>469</v>
+      </c>
+      <c r="B472" s="1">
+        <v>3142400</v>
+      </c>
+      <c r="C472" s="2">
+        <v>21940000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1">
+        <v>470</v>
+      </c>
+      <c r="B473" s="1">
+        <v>3152000</v>
+      </c>
+      <c r="C473" s="2">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1">
+        <v>471</v>
+      </c>
+      <c r="B474" s="1">
+        <v>3161600</v>
+      </c>
+      <c r="C474" s="2">
+        <v>22060000</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1">
+        <v>472</v>
+      </c>
+      <c r="B475" s="1">
+        <v>3171200</v>
+      </c>
+      <c r="C475" s="2">
+        <v>22120000</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1">
+        <v>473</v>
+      </c>
+      <c r="B476" s="1">
+        <v>3180800</v>
+      </c>
+      <c r="C476" s="2">
+        <v>22180000</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1">
+        <v>474</v>
+      </c>
+      <c r="B477" s="1">
+        <v>3190400</v>
+      </c>
+      <c r="C477" s="2">
+        <v>22240000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1">
+        <v>475</v>
+      </c>
+      <c r="B478" s="1">
+        <v>3200000</v>
+      </c>
+      <c r="C478" s="2">
+        <v>22300000</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1">
+        <v>476</v>
+      </c>
+      <c r="B479" s="1">
+        <v>3209600</v>
+      </c>
+      <c r="C479" s="2">
+        <v>22360000</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1">
+        <v>477</v>
+      </c>
+      <c r="B480" s="1">
+        <v>3219200</v>
+      </c>
+      <c r="C480" s="2">
+        <v>22420000</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1">
+        <v>478</v>
+      </c>
+      <c r="B481" s="1">
+        <v>3228800</v>
+      </c>
+      <c r="C481" s="2">
+        <v>22480000</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1">
+        <v>479</v>
+      </c>
+      <c r="B482" s="1">
+        <v>3238400</v>
+      </c>
+      <c r="C482" s="2">
+        <v>22540000</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1">
+        <v>480</v>
+      </c>
+      <c r="B483" s="1">
+        <v>3248000</v>
+      </c>
+      <c r="C483" s="2">
+        <v>22600000</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1">
+        <v>481</v>
+      </c>
+      <c r="B484" s="1">
+        <v>3257600</v>
+      </c>
+      <c r="C484" s="2">
+        <v>22660000</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1">
+        <v>482</v>
+      </c>
+      <c r="B485" s="1">
+        <v>3267200</v>
+      </c>
+      <c r="C485" s="2">
+        <v>22720000</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1">
+        <v>483</v>
+      </c>
+      <c r="B486" s="1">
+        <v>3276800</v>
+      </c>
+      <c r="C486" s="2">
+        <v>22780000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1">
+        <v>484</v>
+      </c>
+      <c r="B487" s="1">
+        <v>3286400</v>
+      </c>
+      <c r="C487" s="2">
+        <v>22840000</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1">
+        <v>485</v>
+      </c>
+      <c r="B488" s="1">
+        <v>3296000</v>
+      </c>
+      <c r="C488" s="2">
+        <v>22900000</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1">
+        <v>486</v>
+      </c>
+      <c r="B489" s="1">
+        <v>3305600</v>
+      </c>
+      <c r="C489" s="2">
+        <v>22960000</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1">
+        <v>487</v>
+      </c>
+      <c r="B490" s="1">
+        <v>3315200</v>
+      </c>
+      <c r="C490" s="2">
+        <v>23020000</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1">
+        <v>488</v>
+      </c>
+      <c r="B491" s="1">
+        <v>3324800</v>
+      </c>
+      <c r="C491" s="2">
+        <v>23080000</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1">
+        <v>489</v>
+      </c>
+      <c r="B492" s="1">
+        <v>3334400</v>
+      </c>
+      <c r="C492" s="2">
+        <v>23140000</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1">
+        <v>490</v>
+      </c>
+      <c r="B493" s="1">
+        <v>3344000</v>
+      </c>
+      <c r="C493" s="2">
+        <v>23200000</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1">
+        <v>491</v>
+      </c>
+      <c r="B494" s="1">
+        <v>3353600</v>
+      </c>
+      <c r="C494" s="2">
+        <v>23260000</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1">
+        <v>492</v>
+      </c>
+      <c r="B495" s="1">
+        <v>3363200</v>
+      </c>
+      <c r="C495" s="2">
+        <v>23320000</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1">
+        <v>493</v>
+      </c>
+      <c r="B496" s="1">
+        <v>3372800</v>
+      </c>
+      <c r="C496" s="2">
+        <v>23380000</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1">
+        <v>494</v>
+      </c>
+      <c r="B497" s="1">
+        <v>3382400</v>
+      </c>
+      <c r="C497" s="2">
+        <v>23440000</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1">
+        <v>495</v>
+      </c>
+      <c r="B498" s="1">
+        <v>3392000</v>
+      </c>
+      <c r="C498" s="2">
+        <v>23500000</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1">
+        <v>496</v>
+      </c>
+      <c r="B499" s="1">
+        <v>3401600</v>
+      </c>
+      <c r="C499" s="2">
+        <v>23560000</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1">
+        <v>497</v>
+      </c>
+      <c r="B500" s="1">
+        <v>3411200</v>
+      </c>
+      <c r="C500" s="2">
+        <v>23620000</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1">
+        <v>498</v>
+      </c>
+      <c r="B501" s="1">
+        <v>3420800</v>
+      </c>
+      <c r="C501" s="2">
+        <v>23680000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1">
+        <v>499</v>
+      </c>
+      <c r="B502" s="1">
+        <v>3430400</v>
+      </c>
+      <c r="C502" s="2">
+        <v>23740000</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1">
+        <v>500</v>
+      </c>
+      <c r="B503" s="1">
+        <v>3440000</v>
+      </c>
+      <c r="C503" s="2">
+        <v>23800000</v>
       </c>
     </row>
   </sheetData>
@@ -3417,7 +6717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3425,7 +6725,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3433,7 +6733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -3441,7 +6741,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
